--- a/outline.xlsx
+++ b/outline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atakan\Documents\GitHub\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B4A3F7-630A-4267-B3CF-2EBB6EB4FC4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010D3213-681C-4703-92D1-7C31CDBAD51D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{B199DB7D-519F-40C8-8DB9-FE837302F4AC}"/>
+    <workbookView xWindow="-22212" yWindow="4380" windowWidth="22320" windowHeight="13176" xr2:uid="{B199DB7D-519F-40C8-8DB9-FE837302F4AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -205,9 +205,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -230,6 +227,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -547,95 +547,95 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30BB00D3-2DDC-4676-9E32-3350729B8B14}">
   <dimension ref="A3:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="42.5546875" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="2" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="2" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -643,7 +643,7 @@
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -651,7 +651,7 @@
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -659,7 +659,7 @@
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -667,7 +667,7 @@
       <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -675,7 +675,7 @@
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -683,7 +683,7 @@
       <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -691,7 +691,7 @@
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -699,7 +699,7 @@
       <c r="A20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -707,12 +707,12 @@
       <c r="A21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="6"/>
+      <c r="B22" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/outline.xlsx
+++ b/outline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20372"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atakan\Documents\GitHub\thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\thesis-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010D3213-681C-4703-92D1-7C31CDBAD51D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4AEB99-02DC-48A4-871E-51E42B7149AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22212" yWindow="4380" windowWidth="22320" windowHeight="13176" xr2:uid="{B199DB7D-519F-40C8-8DB9-FE837302F4AC}"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="27870" windowHeight="12810" xr2:uid="{B199DB7D-519F-40C8-8DB9-FE837302F4AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -547,17 +547,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30BB00D3-2DDC-4676-9E32-3350729B8B14}">
   <dimension ref="A3:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.5546875" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="42.5703125" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -566,7 +566,7 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>36</v>
       </c>
@@ -575,7 +575,7 @@
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
@@ -583,7 +583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
@@ -591,7 +591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
@@ -599,7 +599,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
@@ -607,7 +607,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
@@ -615,7 +615,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>12</v>
       </c>
@@ -623,7 +623,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="2" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>14</v>
       </c>
@@ -631,7 +631,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="2" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
@@ -639,79 +639,79 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:3" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:3" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:3" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:3" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:2" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:2" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:2" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:2" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="2" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:2" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
     </row>
   </sheetData>
